--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>No.</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Q 01</t>
+  </si>
+  <si>
+    <t>Q 02</t>
   </si>
 </sst>
 </file>
@@ -143,10 +146,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -432,7 +435,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +454,9 @@
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -473,9 +478,12 @@
         <f>(8/9)*10</f>
         <v>8.8888888888888893</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="13">
+        <f>(3/5)*10</f>
+        <v>6</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -495,9 +503,12 @@
         <f>(6/9)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="13">
+        <f>(3/5)*10</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -517,9 +528,12 @@
         <f>(9/9)*10</f>
         <v>10</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="13">
+        <f>(5/5)*10</f>
+        <v>10</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -539,9 +553,12 @@
         <f>(5/9)*10</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="13">
+        <f>(2/5)*10</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -560,9 +577,11 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -582,9 +601,12 @@
         <f>(5/9)*10</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="C7" s="13">
+        <f>(4/5)*10</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -604,7 +626,10 @@
         <f>(8/9)*10</f>
         <v>8.8888888888888893</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <f>(3/5)*10</f>
+        <v>6</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -656,15 +681,15 @@
         <v>1</v>
       </c>
       <c r="B11" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -689,12 +714,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10">
-        <f>B2</f>
-        <v>8.8888888888888893</v>
+        <f>B2+C2</f>
+        <v>14.888888888888889</v>
       </c>
       <c r="C14" s="6">
         <f>(B14*40)/B11</f>
-        <v>35.555555555555557</v>
+        <v>29.777777777777779</v>
       </c>
       <c r="F14" s="7"/>
     </row>
@@ -703,12 +728,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10">
-        <f>B3</f>
-        <v>6.6666666666666661</v>
+        <f>B3+C3</f>
+        <v>12.666666666666666</v>
       </c>
       <c r="C15" s="6">
         <f>(B15*40)/B11</f>
-        <v>26.666666666666664</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -717,8 +742,8 @@
         <v>3</v>
       </c>
       <c r="B16" s="10">
-        <f>B4</f>
-        <v>10</v>
+        <f>B4+C4</f>
+        <v>20</v>
       </c>
       <c r="C16" s="6">
         <f>(B16*40)/B11</f>
@@ -731,12 +756,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10">
-        <f>B5</f>
-        <v>5.5555555555555554</v>
+        <f>B5+C5</f>
+        <v>9.5555555555555554</v>
       </c>
       <c r="C17" s="6">
         <f>(B17*40)/B11</f>
-        <v>22.222222222222221</v>
+        <v>19.111111111111111</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -745,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="10">
-        <f>B6</f>
+        <f>B6+C6</f>
         <v>0</v>
       </c>
       <c r="C18" s="6">
@@ -759,12 +784,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10">
-        <f>B7</f>
-        <v>5.5555555555555554</v>
+        <f>B7+C7</f>
+        <v>13.555555555555555</v>
       </c>
       <c r="C19" s="6">
         <f>(B19*40)/B11</f>
-        <v>22.222222222222221</v>
+        <v>27.111111111111107</v>
       </c>
       <c r="F19" s="7"/>
     </row>
@@ -773,12 +798,12 @@
         <v>7</v>
       </c>
       <c r="B20" s="10">
-        <f>B8</f>
-        <v>8.8888888888888893</v>
+        <f>B8+C8</f>
+        <v>14.888888888888889</v>
       </c>
       <c r="C20" s="6">
         <f>(B20*40)/B11</f>
-        <v>35.555555555555557</v>
+        <v>29.777777777777779</v>
       </c>
       <c r="F20" s="7"/>
     </row>

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>No.</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Q 02</t>
+  </si>
+  <si>
+    <t>Q 03</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +460,9 @@
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -482,7 +487,10 @@
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="13">
+        <f>(4/5)*10</f>
+        <v>8</v>
+      </c>
       <c r="E2" s="13"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -507,7 +515,10 @@
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="13">
+        <f>(4/5)*10</f>
+        <v>8</v>
+      </c>
       <c r="E3" s="13"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -532,7 +543,10 @@
         <f>(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="13">
+        <f>(3/5)*10</f>
+        <v>6</v>
+      </c>
       <c r="E4" s="13"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -557,7 +571,10 @@
         <f>(2/5)*10</f>
         <v>4</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="13">
+        <f>(3/5)*10</f>
+        <v>6</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -580,7 +597,9 @@
       <c r="C6" s="13">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -605,7 +624,9 @@
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -630,7 +651,9 @@
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -681,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -714,12 +737,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10">
-        <f>B2+C2</f>
-        <v>14.888888888888889</v>
+        <f>B2+C2+D2</f>
+        <v>22.888888888888889</v>
       </c>
       <c r="C14" s="6">
         <f>(B14*40)/B11</f>
-        <v>29.777777777777779</v>
+        <v>30.518518518518519</v>
       </c>
       <c r="F14" s="7"/>
     </row>
@@ -728,12 +751,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10">
-        <f>B3+C3</f>
-        <v>12.666666666666666</v>
+        <f>B3+C3+D3</f>
+        <v>20.666666666666664</v>
       </c>
       <c r="C15" s="6">
         <f>(B15*40)/B11</f>
-        <v>25.333333333333332</v>
+        <v>27.55555555555555</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -742,12 +765,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10">
-        <f>B4+C4</f>
-        <v>20</v>
+        <f>B4+C4+D4</f>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
         <f>(B16*40)/B11</f>
-        <v>40</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="F16" s="7"/>
     </row>
@@ -756,12 +779,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10">
-        <f>B5+C5</f>
-        <v>9.5555555555555554</v>
+        <f>B5+C5+D5</f>
+        <v>15.555555555555555</v>
       </c>
       <c r="C17" s="6">
         <f>(B17*40)/B11</f>
-        <v>19.111111111111111</v>
+        <v>20.74074074074074</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -770,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="10">
-        <f>B6+C6</f>
+        <f>B6+C6+D6</f>
         <v>0</v>
       </c>
       <c r="C18" s="6">
@@ -784,12 +807,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10">
-        <f>B7+C7</f>
+        <f>B7+C7+D7</f>
         <v>13.555555555555555</v>
       </c>
       <c r="C19" s="6">
         <f>(B19*40)/B11</f>
-        <v>27.111111111111107</v>
+        <v>18.074074074074073</v>
       </c>
       <c r="F19" s="7"/>
     </row>
@@ -798,12 +821,12 @@
         <v>7</v>
       </c>
       <c r="B20" s="10">
-        <f>B8+C8</f>
+        <f>B8+C8+D8</f>
         <v>14.888888888888889</v>
       </c>
       <c r="C20" s="6">
         <f>(B20*40)/B11</f>
-        <v>29.777777777777779</v>
+        <v>19.851851851851851</v>
       </c>
       <c r="F20" s="7"/>
     </row>

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -40,6 +40,12 @@
     <t xml:space="preserve">Q 05</t>
   </si>
   <si>
+    <t xml:space="preserve">H 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 03</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
@@ -47,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">h.Final(45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra point</t>
   </si>
   <si>
     <t xml:space="preserve">project</t>
@@ -289,16 +298,17 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.53"/>
@@ -323,8 +333,12 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -357,8 +371,12 @@
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>9.5</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -390,8 +408,12 @@
       <c r="F3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>8.5</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -424,8 +446,12 @@
         <f aca="false">(2/5)*10</f>
         <v>4</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>6.5</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -458,8 +484,12 @@
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -487,8 +517,12 @@
       <c r="F6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -520,8 +554,12 @@
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -553,8 +591,12 @@
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -598,35 +640,37 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,98 +678,161 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+C2+D2+E2+F2</f>
-        <v>34.8888888888889</v>
+        <f aca="false">B2+C2+D2+E2+F2+G2+H2</f>
+        <v>54.3888888888889</v>
       </c>
       <c r="C14" s="11" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>31.4</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>34.9642857142857</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <f aca="false">C14+D14+E14</f>
+        <v>39.9642857142857</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3</f>
-        <v>24.6666666666667</v>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3</f>
+        <v>42.1666666666667</v>
       </c>
       <c r="C15" s="11" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>22.2</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>27.1071428571429</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <f aca="false">C15+D15+E15</f>
+        <v>32.1071428571429</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4</f>
-        <v>38</v>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4</f>
+        <v>49.5</v>
       </c>
       <c r="C16" s="11" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>34.2</v>
-      </c>
-      <c r="F16" s="8"/>
+        <v>31.8214285714286</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <f aca="false">C16+D16+E16</f>
+        <v>36.8214285714286</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5</f>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5</f>
         <v>27.5555555555556</v>
       </c>
       <c r="C17" s="11" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>24.8</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>17.7142857142857</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <f aca="false">C17+D17+E17</f>
+        <v>17.7142857142857</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6</f>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6</f>
         <v>0</v>
       </c>
       <c r="C18" s="11" t="n">
         <f aca="false">(B18*45)/B11</f>
         <v>0</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <f aca="false">C18+D18+E18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7</f>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7</f>
         <v>23.5555555555556</v>
       </c>
       <c r="C19" s="11" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>21.2</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>15.1428571428571</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <f aca="false">C19+D19+E19</f>
+        <v>15.1428571428571</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8</f>
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8</f>
         <v>28.8888888888889</v>
       </c>
       <c r="C20" s="11" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>26</v>
-      </c>
-      <c r="F20" s="8"/>
+        <v>18.5714285714286</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <f aca="false">C20+D20+E20</f>
+        <v>18.5714285714286</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">H 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 04</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -298,7 +301,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,7 +342,9 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -377,7 +382,9 @@
       <c r="H2" s="3" t="n">
         <v>9.5</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -414,7 +421,9 @@
       <c r="H3" s="3" t="n">
         <v>8.5</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -452,7 +461,9 @@
       <c r="H4" s="3" t="n">
         <v>6.5</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -490,7 +501,9 @@
       <c r="H5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -523,7 +536,9 @@
       <c r="H6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -560,7 +575,9 @@
       <c r="H7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -597,7 +614,9 @@
       <c r="H8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -640,15 +659,15 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -658,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,12 +697,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+C2+D2+E2+F2+G2+H2</f>
-        <v>54.3888888888889</v>
+        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2</f>
+        <v>64.3888888888889</v>
       </c>
       <c r="C14" s="11" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>34.9642857142857</v>
+        <v>36.21875</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>5</v>
@@ -693,7 +712,7 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>39.9642857142857</v>
+        <v>41.21875</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,12 +720,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3</f>
-        <v>42.1666666666667</v>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3</f>
+        <v>52.1666666666667</v>
       </c>
       <c r="C15" s="11" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>27.1071428571429</v>
+        <v>29.34375</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>5</v>
@@ -716,7 +735,7 @@
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>32.1071428571429</v>
+        <v>34.34375</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,12 +743,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4</f>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4</f>
         <v>49.5</v>
       </c>
       <c r="C16" s="11" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>31.8214285714286</v>
+        <v>27.84375</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>5</v>
@@ -739,7 +758,7 @@
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>36.8214285714286</v>
+        <v>32.84375</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,12 +766,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5</f>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5</f>
         <v>27.5555555555556</v>
       </c>
       <c r="C17" s="11" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>17.7142857142857</v>
+        <v>15.5</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0</v>
@@ -762,7 +781,7 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>17.7142857142857</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6</f>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6</f>
         <v>0</v>
       </c>
       <c r="C18" s="11" t="n">
@@ -793,12 +812,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7</f>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7</f>
         <v>23.5555555555556</v>
       </c>
       <c r="C19" s="11" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>15.1428571428571</v>
+        <v>13.25</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
@@ -808,7 +827,7 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>15.1428571428571</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -816,12 +835,12 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8</f>
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8</f>
         <v>28.8888888888889</v>
       </c>
       <c r="C20" s="11" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>18.5714285714286</v>
+        <v>16.25</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
@@ -831,7 +850,7 @@
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>18.5714285714286</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t xml:space="preserve">H 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 05</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -71,10 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -172,16 +177,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,32 +194,28 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -301,74 +302,79 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
         <f aca="false">(8/9)*10</f>
         <v>8.88888888888889</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
@@ -385,30 +391,35 @@
       <c r="I2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="J2" s="3" t="n">
+        <f aca="false">(3/7)*10</f>
+        <v>4.28571428571429</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>10.5</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
         <f aca="false">(6/9)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <f aca="false">(2/5)*10</f>
         <v>4</v>
       </c>
@@ -424,30 +435,35 @@
       <c r="I3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="3" t="n">
+        <f aca="false">(2/7)*10</f>
+        <v>2.85714285714286</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>8.5</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="n">
         <f aca="false">(9/9)*10</f>
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <f aca="false">(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
@@ -464,30 +480,35 @@
       <c r="I4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="J4" s="3" t="n">
+        <f aca="false">(4/7)*10</f>
+        <v>5.71428571428571</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>9.5</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="n">
         <f aca="false">(5/9)*10</f>
         <v>5.55555555555556</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <f aca="false">(2/5)*10</f>
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
@@ -504,27 +525,32 @@
       <c r="I5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="J5" s="3" t="n">
+        <f aca="false">(0/7)*10</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
@@ -539,29 +565,33 @@
       <c r="I6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="n">
         <f aca="false">(5/9)*10</f>
         <v>5.55555555555556</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
         <f aca="false">(1/5)*10</f>
         <v>2</v>
       </c>
@@ -578,15 +608,20 @@
       <c r="I7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="J7" s="3" t="n">
+        <f aca="false">(1/7)*10</f>
+        <v>1.42857142857143</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="n">
@@ -617,8 +652,13 @@
       <c r="I8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="J8" s="3" t="n">
+        <f aca="false">(5/7)*10</f>
+        <v>7.14285714285714</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>9</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -659,15 +699,15 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -677,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,22 +737,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2</f>
-        <v>64.3888888888889</v>
-      </c>
-      <c r="C14" s="11" t="n">
+        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2</f>
+        <v>79.1746031746032</v>
+      </c>
+      <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>36.21875</v>
-      </c>
-      <c r="D14" s="0" t="n">
+        <v>35.6285714285714</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>41.21875</v>
+        <v>40.6285714285714</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,22 +760,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3</f>
-        <v>52.1666666666667</v>
-      </c>
-      <c r="C15" s="11" t="n">
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3</f>
+        <v>63.5238095238095</v>
+      </c>
+      <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>29.34375</v>
-      </c>
-      <c r="D15" s="0" t="n">
+        <v>28.5857142857143</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>34.34375</v>
+        <v>33.5857142857143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,22 +783,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4</f>
-        <v>49.5</v>
-      </c>
-      <c r="C16" s="11" t="n">
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4</f>
+        <v>64.7142857142857</v>
+      </c>
+      <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>27.84375</v>
-      </c>
-      <c r="D16" s="0" t="n">
+        <v>29.1214285714286</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>32.84375</v>
+        <v>34.1214285714286</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,22 +806,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5</f>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5</f>
         <v>27.5555555555556</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>15.5</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>15.5</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,17 +829,17 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="11" t="n">
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="10" t="n">
         <f aca="false">(B18*45)/B11</f>
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="8" t="n">
@@ -812,22 +852,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7</f>
-        <v>23.5555555555556</v>
-      </c>
-      <c r="C19" s="11" t="n">
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7</f>
+        <v>24.984126984127</v>
+      </c>
+      <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>13.25</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
+        <v>11.2428571428571</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>13.25</v>
+        <v>11.2428571428571</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,34 +875,34 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8</f>
-        <v>28.8888888888889</v>
-      </c>
-      <c r="C20" s="11" t="n">
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8</f>
+        <v>45.031746031746</v>
+      </c>
+      <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>16.25</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0" t="n">
+        <v>20.2642857142857</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>16.25</v>
+        <v>20.2642857142857</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="10"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="10"/>
       <c r="F22" s="8"/>
     </row>
   </sheetData>

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -302,7 +302,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -644,20 +644,20 @@
         <v>6</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3" t="n">
         <f aca="false">(5/7)*10</f>
         <v>7.14285714285714</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -876,21 +876,21 @@
       </c>
       <c r="B20" s="10" t="n">
         <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8</f>
-        <v>45.031746031746</v>
+        <v>55.031746031746</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>20.2642857142857</v>
+        <v>24.7642857142857</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>20.2642857142857</v>
+        <v>29.7642857142857</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">H 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 07</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -302,7 +305,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -353,7 +356,9 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -398,7 +403,10 @@
       <c r="K2" s="3" t="n">
         <v>10.5</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3" t="n">
+        <f aca="false">(36.25/40)*10</f>
+        <v>9.0625</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -442,7 +450,10 @@
       <c r="K3" s="3" t="n">
         <v>8.5</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3" t="n">
+        <f aca="false">(22.5/40)*10</f>
+        <v>5.625</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -487,7 +498,10 @@
       <c r="K4" s="3" t="n">
         <v>9.5</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="n">
+        <f aca="false">(31.5/40)*10</f>
+        <v>7.875</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -532,7 +546,10 @@
       <c r="K5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="n">
+        <f aca="false">(29.5/40)*10</f>
+        <v>7.375</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -571,7 +588,9 @@
       <c r="K6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -615,7 +634,10 @@
       <c r="K7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3" t="n">
+        <f aca="false">(30.5/40)*10</f>
+        <v>7.625</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -659,7 +681,10 @@
       <c r="K8" s="3" t="n">
         <v>9.5</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="n">
+        <f aca="false">(27.5/40)*10</f>
+        <v>6.875</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -699,15 +724,15 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -717,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,12 +762,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2</f>
-        <v>79.1746031746032</v>
+        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2</f>
+        <v>88.2371031746032</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>35.6285714285714</v>
+        <v>36.0969967532468</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>5</v>
@@ -752,7 +777,7 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>40.6285714285714</v>
+        <v>41.0969967532468</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,12 +785,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3</f>
-        <v>63.5238095238095</v>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3</f>
+        <v>69.1488095238095</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>28.5857142857143</v>
+        <v>28.2881493506494</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>5</v>
@@ -775,7 +800,7 @@
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>33.5857142857143</v>
+        <v>33.2881493506493</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,12 +808,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4</f>
-        <v>64.7142857142857</v>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4</f>
+        <v>72.5892857142857</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>29.1214285714286</v>
+        <v>29.6956168831169</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>5</v>
@@ -798,7 +823,7 @@
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>34.1214285714286</v>
+        <v>34.6956168831169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,12 +831,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5</f>
-        <v>27.5555555555556</v>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5</f>
+        <v>34.9305555555556</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>12.4</v>
+        <v>14.2897727272727</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -821,7 +846,7 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>12.4</v>
+        <v>14.2897727272727</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6</f>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6</f>
         <v>0</v>
       </c>
       <c r="C18" s="10" t="n">
@@ -852,12 +877,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7</f>
-        <v>24.984126984127</v>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7</f>
+        <v>32.609126984127</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>11.2428571428571</v>
+        <v>13.3400974025974</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -867,7 +892,7 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>11.2428571428571</v>
+        <v>13.3400974025974</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,12 +900,12 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8</f>
-        <v>55.031746031746</v>
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8</f>
+        <v>61.906746031746</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>24.7642857142857</v>
+        <v>25.325487012987</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>5</v>
@@ -890,7 +915,7 @@
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>29.7642857142857</v>
+        <v>30.325487012987</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 06</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -359,7 +362,9 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
@@ -407,7 +412,9 @@
         <f aca="false">(36.25/40)*10</f>
         <v>9.0625</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
@@ -454,7 +461,9 @@
         <f aca="false">(22.5/40)*10</f>
         <v>5.625</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
@@ -502,7 +511,9 @@
         <f aca="false">(31.5/40)*10</f>
         <v>7.875</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
@@ -550,7 +561,9 @@
         <f aca="false">(29.5/40)*10</f>
         <v>7.375</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
@@ -591,7 +604,9 @@
       <c r="L6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
@@ -638,7 +653,9 @@
         <f aca="false">(30.5/40)*10</f>
         <v>7.625</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
@@ -685,7 +702,9 @@
         <f aca="false">(27.5/40)*10</f>
         <v>6.875</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3" t="n">
+        <v>11</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
@@ -724,15 +743,15 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -742,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,12 +781,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2</f>
-        <v>88.2371031746032</v>
+        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2</f>
+        <v>98.2371031746032</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>36.0969967532468</v>
+        <v>36.8389136904762</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>5</v>
@@ -777,7 +796,7 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>41.0969967532468</v>
+        <v>41.8389136904762</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,12 +804,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3</f>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3</f>
         <v>69.1488095238095</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>28.2881493506494</v>
+        <v>25.9308035714286</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>5</v>
@@ -800,7 +819,7 @@
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>33.2881493506493</v>
+        <v>30.9308035714286</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,12 +827,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4</f>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4</f>
         <v>72.5892857142857</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>29.6956168831169</v>
+        <v>27.2209821428571</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>5</v>
@@ -823,7 +842,7 @@
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>34.6956168831169</v>
+        <v>32.2209821428571</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,12 +850,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5</f>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5</f>
         <v>34.9305555555556</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>14.2897727272727</v>
+        <v>13.0989583333333</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -846,7 +865,7 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>14.2897727272727</v>
+        <v>13.0989583333333</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6</f>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6</f>
         <v>0</v>
       </c>
       <c r="C18" s="10" t="n">
@@ -877,12 +896,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7</f>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7</f>
         <v>32.609126984127</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>13.3400974025974</v>
+        <v>12.2284226190476</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -892,7 +911,7 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>13.3400974025974</v>
+        <v>12.2284226190476</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,12 +919,12 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8</f>
-        <v>61.906746031746</v>
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8</f>
+        <v>72.906746031746</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>25.325487012987</v>
+        <v>27.3400297619048</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>5</v>
@@ -915,7 +934,7 @@
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>30.325487012987</v>
+        <v>32.3400297619048</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">H 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 08</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -308,7 +311,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -365,7 +368,9 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="O1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,7 +420,10 @@
       <c r="M2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3" t="n">
+        <f aca="false">(4/6)*10</f>
+        <v>6.66666666666667</v>
+      </c>
       <c r="O2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,7 +472,10 @@
       <c r="M3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3" t="n">
+        <f aca="false">(0/6)*10</f>
+        <v>0</v>
+      </c>
       <c r="O3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +525,10 @@
       <c r="M4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3" t="n">
+        <f aca="false">(2/6)*10</f>
+        <v>3.33333333333333</v>
+      </c>
       <c r="O4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,7 +578,10 @@
       <c r="M5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3" t="n">
+        <f aca="false">(4/6)*10</f>
+        <v>6.66666666666667</v>
+      </c>
       <c r="O5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,7 +624,9 @@
       <c r="M6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,7 +675,10 @@
       <c r="M7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3" t="n">
+        <f aca="false">(0/6)*10</f>
+        <v>0</v>
+      </c>
       <c r="O7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,7 +727,10 @@
       <c r="M8" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3" t="n">
+        <f aca="false">(1/6)*10</f>
+        <v>1.66666666666667</v>
+      </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,15 +768,15 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -761,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,12 +806,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2</f>
-        <v>98.2371031746032</v>
+        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2</f>
+        <v>104.90376984127</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>36.8389136904762</v>
+        <v>36.3128434065934</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>5</v>
@@ -796,7 +821,7 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>41.8389136904762</v>
+        <v>41.3128434065934</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,12 +829,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3</f>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3</f>
         <v>69.1488095238095</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>25.9308035714286</v>
+        <v>23.9361263736264</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>5</v>
@@ -819,7 +844,7 @@
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>30.9308035714286</v>
+        <v>28.9361263736264</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,12 +852,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4</f>
-        <v>72.5892857142857</v>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4</f>
+        <v>75.922619047619</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>27.2209821428571</v>
+        <v>26.2809065934066</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>5</v>
@@ -842,7 +867,7 @@
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>32.2209821428571</v>
+        <v>31.2809065934066</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,12 +875,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5</f>
-        <v>34.9305555555556</v>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5</f>
+        <v>41.5972222222222</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>13.0989583333333</v>
+        <v>14.3990384615385</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -865,7 +890,7 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>13.0989583333333</v>
+        <v>14.3990384615385</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6</f>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6</f>
         <v>0</v>
       </c>
       <c r="C18" s="10" t="n">
@@ -896,12 +921,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7</f>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7</f>
         <v>32.609126984127</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>12.2284226190476</v>
+        <v>11.2877747252747</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -911,7 +936,7 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>12.2284226190476</v>
+        <v>11.2877747252747</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,12 +944,12 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8</f>
-        <v>72.906746031746</v>
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8</f>
+        <v>74.5734126984127</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>27.3400297619048</v>
+        <v>25.8138736263736</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>5</v>
@@ -934,7 +959,7 @@
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>32.3400297619048</v>
+        <v>30.8138736263736</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 09</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -311,7 +314,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -371,7 +374,9 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3"/>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -424,7 +429,10 @@
         <f aca="false">(4/6)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -476,7 +484,9 @@
         <f aca="false">(0/6)*10</f>
         <v>0</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -529,7 +539,9 @@
         <f aca="false">(2/6)*10</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -582,7 +594,10 @@
         <f aca="false">(4/6)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -627,7 +642,9 @@
       <c r="N6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -679,7 +696,10 @@
         <f aca="false">(0/6)*10</f>
         <v>0</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3" t="n">
+        <f aca="false">(1/3)*10</f>
+        <v>3.33333333333333</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -731,7 +751,9 @@
         <f aca="false">(1/6)*10</f>
         <v>1.66666666666667</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3"/>
@@ -768,15 +790,15 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -786,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,12 +828,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2</f>
-        <v>104.90376984127</v>
+        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2+O2</f>
+        <v>111.570436507937</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>36.3128434065934</v>
+        <v>35.8619260204082</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>5</v>
@@ -821,7 +843,7 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>41.3128434065934</v>
+        <v>40.8619260204082</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,22 +851,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3</f>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3</f>
         <v>69.1488095238095</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>23.9361263736264</v>
+        <v>22.2264030612245</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>28.9361263736264</v>
+        <v>22.2264030612245</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,12 +874,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4</f>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4</f>
         <v>75.922619047619</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>26.2809065934066</v>
+        <v>24.4036989795918</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>5</v>
@@ -867,7 +889,7 @@
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>31.2809065934066</v>
+        <v>29.4036989795918</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,12 +897,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5</f>
-        <v>41.5972222222222</v>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5</f>
+        <v>48.2638888888889</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>14.3990384615385</v>
+        <v>15.5133928571429</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -890,7 +912,7 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>14.3990384615385</v>
+        <v>15.5133928571429</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6</f>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6</f>
         <v>0</v>
       </c>
       <c r="C18" s="10" t="n">
@@ -921,12 +943,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7</f>
-        <v>32.609126984127</v>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7</f>
+        <v>35.9424603174603</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>11.2877747252747</v>
+        <v>11.5529336734694</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -936,7 +958,7 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>11.2877747252747</v>
+        <v>11.5529336734694</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,12 +966,12 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8</f>
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8</f>
         <v>74.5734126984127</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>25.8138736263736</v>
+        <v>23.9700255102041</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>5</v>
@@ -959,7 +981,7 @@
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>30.8138736263736</v>
+        <v>28.9700255102041</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 10</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -198,11 +201,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,13 +314,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.33"/>
@@ -327,478 +330,510 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <f aca="false">(8/9)*10</f>
         <v>8.88888888888889</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2" t="n">
         <v>9.5</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="2" t="n">
         <f aca="false">(3/7)*10</f>
         <v>4.28571428571429</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="2" t="n">
         <v>10.5</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="2" t="n">
         <f aca="false">(36.25/40)*10</f>
         <v>9.0625</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="2" t="n">
         <f aca="false">(4/6)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="2" t="n">
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P2" s="2" t="n">
+        <f aca="false">(54/80)*10</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <f aca="false">(6/9)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="2" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <f aca="false">(2/5)*10</f>
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="n">
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="2" t="n">
         <f aca="false">(2/7)*10</f>
         <v>2.85714285714286</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="2" t="n">
         <f aca="false">(22.5/40)*10</f>
         <v>5.625</v>
       </c>
-      <c r="M3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3" t="n">
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
         <f aca="false">(0/6)*10</f>
         <v>0</v>
       </c>
-      <c r="O3" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <f aca="false">(14.5/80)*10</f>
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
         <f aca="false">(9/9)*10</f>
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="2" t="n">
         <f aca="false">(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="2" t="n">
         <f aca="false">(2/5)*10</f>
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="n">
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
         <f aca="false">(4/7)*10</f>
         <v>5.71428571428571</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="2" t="n">
         <v>9.5</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="2" t="n">
         <f aca="false">(31.5/40)*10</f>
         <v>7.875</v>
       </c>
-      <c r="M4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3" t="n">
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
         <f aca="false">(2/6)*10</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="O4" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <f aca="false">(32/80)*10</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <f aca="false">(5/9)*10</f>
         <v>5.55555555555556</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="2" t="n">
         <f aca="false">(2/5)*10</f>
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="2" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="n">
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
         <f aca="false">(0/7)*10</f>
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="n">
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
         <f aca="false">(29.5/40)*10</f>
         <v>7.375</v>
       </c>
-      <c r="M5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3" t="n">
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
         <f aca="false">(4/6)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="2" t="n">
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P5" s="2" t="n">
+        <f aca="false">(26/80)*10</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="2" t="n">
         <f aca="false">(5/9)*10</f>
         <v>5.55555555555556</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="2" t="n">
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="n">
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <f aca="false">(1/5)*10</f>
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="2" t="n">
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="n">
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
         <f aca="false">(1/7)*10</f>
         <v>1.42857142857143</v>
       </c>
-      <c r="K7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="n">
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
         <f aca="false">(30.5/40)*10</f>
         <v>7.625</v>
       </c>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="n">
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
         <f aca="false">(0/6)*10</f>
         <v>0</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="2" t="n">
         <f aca="false">(1/3)*10</f>
         <v>3.33333333333333</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <f aca="false">(16/80)*10</f>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="2" t="n">
         <f aca="false">(8/9)*10</f>
         <v>8.88888888888889</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="2" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="2" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="2" t="n">
         <v>4.5</v>
       </c>
-      <c r="H8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="n">
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="2" t="n">
         <f aca="false">(5/7)*10</f>
         <v>7.14285714285714</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="2" t="n">
         <v>9.5</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="L8" s="2" t="n">
         <f aca="false">(27.5/40)*10</f>
         <v>6.875</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="2" t="n">
         <f aca="false">(1/6)*10</f>
         <v>1.66666666666667</v>
       </c>
-      <c r="O8" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <f aca="false">(28/80)*10</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -808,32 +843,32 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2+O2</f>
-        <v>111.570436507937</v>
+        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2+O2+P2</f>
+        <v>118.320436507937</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>35.8619260204082</v>
+        <v>35.4961309523809</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>5</v>
@@ -843,20 +878,20 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>40.8619260204082</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40.496130952381</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3</f>
-        <v>69.1488095238095</v>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3</f>
+        <v>70.9613095238095</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>22.2264030612245</v>
+        <v>21.2883928571429</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
@@ -866,20 +901,20 @@
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>22.2264030612245</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21.2883928571429</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4</f>
-        <v>75.922619047619</v>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4</f>
+        <v>79.922619047619</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>24.4036989795918</v>
+        <v>23.9767857142857</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>5</v>
@@ -889,20 +924,20 @@
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>29.4036989795918</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28.9767857142857</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5</f>
-        <v>48.2638888888889</v>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5</f>
+        <v>51.5138888888889</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>15.5133928571429</v>
+        <v>15.4541666666667</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -912,10 +947,10 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>15.5133928571429</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15.4541666666667</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>5</v>
       </c>
@@ -938,17 +973,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7</f>
-        <v>35.9424603174603</v>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7</f>
+        <v>37.9424603174603</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>11.5529336734694</v>
+        <v>11.3827380952381</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -958,20 +993,20 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>11.5529336734694</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11.3827380952381</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8</f>
-        <v>74.5734126984127</v>
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8</f>
+        <v>78.0734126984127</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>23.9700255102041</v>
+        <v>23.4220238095238</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>5</v>
@@ -981,16 +1016,16 @@
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>28.9700255102041</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28.4220238095238</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -70,13 +70,19 @@
     <t xml:space="preserve">Q 10</t>
   </si>
   <si>
+    <t xml:space="preserve">H 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">h.Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h.Final(45)</t>
+    <t xml:space="preserve">Homeworks &amp; Quizzes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H &amp; Q Final ( 45 )</t>
   </si>
   <si>
     <t xml:space="preserve">Extra point</t>
@@ -314,16 +320,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.33"/>
@@ -332,8 +339,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="2" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,6 +392,12 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -445,6 +458,12 @@
         <f aca="false">(54/80)*10</f>
         <v>6.75</v>
       </c>
+      <c r="Q2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -503,6 +522,12 @@
         <f aca="false">(14.5/80)*10</f>
         <v>1.8125</v>
       </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -562,6 +587,12 @@
         <f aca="false">(32/80)*10</f>
         <v>4</v>
       </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -622,6 +653,12 @@
         <f aca="false">(26/80)*10</f>
         <v>3.25</v>
       </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -672,6 +709,12 @@
       <c r="P6" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -731,6 +774,12 @@
         <f aca="false">(16/80)*10</f>
         <v>2</v>
       </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -788,6 +837,12 @@
       <c r="P8" s="2" t="n">
         <f aca="false">(28/80)*10</f>
         <v>3.5</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,15 +880,15 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -843,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,12 +918,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2+O2+P2</f>
-        <v>118.320436507937</v>
+        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2</f>
+        <v>139.320436507937</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>35.4961309523809</v>
+        <v>36.8789390756303</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>5</v>
@@ -878,7 +933,7 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>40.496130952381</v>
+        <v>41.8789390756303</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,12 +941,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3</f>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3</f>
         <v>70.9613095238095</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>21.2883928571429</v>
+        <v>18.7838760504202</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
@@ -901,7 +956,7 @@
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>21.2883928571429</v>
+        <v>18.7838760504202</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,22 +964,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4</f>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4</f>
         <v>79.922619047619</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>23.9767857142857</v>
+        <v>21.155987394958</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>28.9767857142857</v>
+        <v>21.155987394958</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,12 +987,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5</f>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5</f>
         <v>51.5138888888889</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>15.4541666666667</v>
+        <v>13.6360294117647</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -947,7 +1002,7 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>15.4541666666667</v>
+        <v>13.6360294117647</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6</f>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6</f>
         <v>0</v>
       </c>
       <c r="C18" s="10" t="n">
@@ -978,12 +1033,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7</f>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7</f>
         <v>37.9424603174603</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>11.3827380952381</v>
+        <v>10.0435924369748</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -993,7 +1048,7 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>11.3827380952381</v>
+        <v>10.0435924369748</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,12 +1056,12 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8</f>
-        <v>78.0734126984127</v>
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8</f>
+        <v>97.5734126984127</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>23.4220238095238</v>
+        <v>25.828256302521</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>5</v>
@@ -1016,7 +1071,7 @@
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>28.4220238095238</v>
+        <v>30.828256302521</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">H 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 11</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -320,10 +323,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,8 +342,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="2" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="2" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,6 +401,9 @@
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -464,6 +470,9 @@
       <c r="R2" s="2" t="n">
         <v>11</v>
       </c>
+      <c r="S2" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -528,6 +537,9 @@
       <c r="R3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -593,6 +605,9 @@
       <c r="R4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -659,6 +674,9 @@
       <c r="R5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -715,6 +733,9 @@
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="S6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -780,6 +801,9 @@
       <c r="R7" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="S7" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -843,6 +867,9 @@
       </c>
       <c r="R8" s="2" t="n">
         <v>10.5</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,15 +907,15 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -898,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -918,12 +945,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2</f>
-        <v>139.320436507937</v>
+        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2+S2</f>
+        <v>148.320436507937</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>36.8789390756303</v>
+        <v>37.0801091269841</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>5</v>
@@ -933,7 +960,7 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>41.8789390756303</v>
+        <v>42.0801091269841</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,12 +968,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3</f>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3</f>
         <v>70.9613095238095</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>18.7838760504202</v>
+        <v>17.7403273809524</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
@@ -956,7 +983,7 @@
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>18.7838760504202</v>
+        <v>17.7403273809524</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,12 +991,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4</f>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4</f>
         <v>79.922619047619</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>21.155987394958</v>
+        <v>19.9806547619048</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
@@ -979,7 +1006,7 @@
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>21.155987394958</v>
+        <v>19.9806547619048</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,12 +1014,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5</f>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5</f>
         <v>51.5138888888889</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>13.6360294117647</v>
+        <v>12.8784722222222</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -1002,7 +1029,7 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>13.6360294117647</v>
+        <v>12.8784722222222</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6</f>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6</f>
         <v>0</v>
       </c>
       <c r="C18" s="10" t="n">
@@ -1033,12 +1060,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7</f>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7</f>
         <v>37.9424603174603</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>10.0435924369748</v>
+        <v>9.48561507936508</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -1048,7 +1075,7 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>10.0435924369748</v>
+        <v>9.48561507936508</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,12 +1083,12 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8</f>
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8</f>
         <v>97.5734126984127</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>25.828256302521</v>
+        <v>24.3933531746032</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>5</v>
@@ -1071,7 +1098,7 @@
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>30.828256302521</v>
+        <v>29.3933531746032</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">H 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 15</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -323,10 +326,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -342,8 +345,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="2" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="2" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,6 +407,9 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -473,6 +479,10 @@
       <c r="S2" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="T2" s="2" t="n">
+        <f aca="false">(7/7)*10</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -540,6 +550,9 @@
       <c r="S3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -608,6 +621,9 @@
       <c r="S4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -677,6 +693,10 @@
       <c r="S5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="T5" s="2" t="n">
+        <f aca="false">(6/7)*10</f>
+        <v>8.57142857142857</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -736,6 +756,9 @@
       <c r="S6" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="T6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -804,6 +827,10 @@
       <c r="S7" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="T7" s="2" t="n">
+        <f aca="false">(5/7)*10</f>
+        <v>7.14285714285714</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -870,6 +897,10 @@
       </c>
       <c r="S8" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <f aca="false">(7/7)*10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,15 +938,15 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -925,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,12 +976,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2+S2</f>
-        <v>148.320436507937</v>
+        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2+S2+T2</f>
+        <v>158.320436507937</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>37.0801091269841</v>
+        <v>37.4969454887218</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>5</v>
@@ -960,7 +991,7 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>42.0801091269841</v>
+        <v>42.4969454887218</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,12 +999,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3</f>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3</f>
         <v>70.9613095238095</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>17.7403273809524</v>
+        <v>16.8066259398496</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
@@ -983,7 +1014,7 @@
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>17.7403273809524</v>
+        <v>16.8066259398496</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,12 +1022,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4</f>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4</f>
         <v>79.922619047619</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>19.9806547619048</v>
+        <v>18.9290413533835</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
@@ -1006,7 +1037,7 @@
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>19.9806547619048</v>
+        <v>18.9290413533835</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,12 +1045,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5</f>
-        <v>51.5138888888889</v>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5</f>
+        <v>60.0853174603175</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>12.8784722222222</v>
+        <v>14.2307330827068</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -1029,7 +1060,7 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>12.8784722222222</v>
+        <v>14.2307330827068</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,7 +1068,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6</f>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6</f>
         <v>0</v>
       </c>
       <c r="C18" s="10" t="n">
@@ -1060,12 +1091,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7</f>
-        <v>37.9424603174603</v>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7</f>
+        <v>45.0853174603175</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>9.48561507936508</v>
+        <v>10.6781015037594</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -1075,7 +1106,7 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>9.48561507936508</v>
+        <v>10.6781015037594</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,12 +1114,12 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8</f>
-        <v>97.5734126984127</v>
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8+T8</f>
+        <v>107.573412698413</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>24.3933531746032</v>
+        <v>25.4779135338346</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>5</v>
@@ -1098,7 +1129,7 @@
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>29.3933531746032</v>
+        <v>30.4779135338346</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t xml:space="preserve">Q 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 15</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -326,10 +335,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -345,8 +354,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="2" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="16" style="2" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,6 +419,15 @@
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -483,6 +501,16 @@
         <f aca="false">(7/7)*10</f>
         <v>10</v>
       </c>
+      <c r="U2" s="2" t="n">
+        <f aca="false">(10/12)*10</f>
+        <v>8.33333333333333</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -553,6 +581,16 @@
       <c r="T3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="U3" s="2" t="n">
+        <f aca="false">(0/12)*10</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -624,6 +662,16 @@
       <c r="T4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="U4" s="2" t="n">
+        <f aca="false">(0/12)*10</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -697,6 +745,16 @@
         <f aca="false">(6/7)*10</f>
         <v>8.57142857142857</v>
       </c>
+      <c r="U5" s="2" t="n">
+        <f aca="false">(10/12)*10</f>
+        <v>8.33333333333333</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -759,6 +817,16 @@
       <c r="T6" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="U6" s="2" t="n">
+        <f aca="false">(0/12)*10</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -831,6 +899,16 @@
         <f aca="false">(5/7)*10</f>
         <v>7.14285714285714</v>
       </c>
+      <c r="U7" s="2" t="n">
+        <f aca="false">(11/12)*10</f>
+        <v>9.16666666666667</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -901,6 +979,16 @@
       <c r="T8" s="2" t="n">
         <f aca="false">(7/7)*10</f>
         <v>10</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <f aca="false">(12/12)*10</f>
+        <v>10</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,15 +1026,15 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -956,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,22 +1064,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2+S2+T2</f>
-        <v>158.320436507937</v>
+        <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2+S2+T2+U2+V2+W2</f>
+        <v>176.65376984127</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>37.4969454887218</v>
+        <v>36.1337256493506</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>42.4969454887218</v>
+        <v>46.1337256493507</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,22 +1087,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3</f>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3+U3+V3+W3</f>
         <v>70.9613095238095</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>16.8066259398496</v>
+        <v>14.5148133116883</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>16.8066259398496</v>
+        <v>18.0148133116883</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,22 +1110,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4</f>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4</f>
         <v>79.922619047619</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>18.9290413533835</v>
+        <v>16.3478084415584</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>18.9290413533835</v>
+        <v>20.8478084415584</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,22 +1133,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5</f>
-        <v>60.0853174603175</v>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5</f>
+        <v>68.4186507936508</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>14.2307330827068</v>
+        <v>13.994724025974</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>14.2307330827068</v>
+        <v>18.994724025974</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6</f>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6</f>
         <v>0</v>
       </c>
       <c r="C18" s="10" t="n">
@@ -1091,22 +1179,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7</f>
-        <v>45.0853174603175</v>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7</f>
+        <v>54.2519841269841</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>10.6781015037594</v>
+        <v>11.0969967532468</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>10.6781015037594</v>
+        <v>15.0969967532468</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,22 +1202,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8+T8</f>
-        <v>107.573412698413</v>
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8</f>
+        <v>117.573412698413</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>25.4779135338346</v>
+        <v>24.0491071428571</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>30.4779135338346</v>
+        <v>34.0491071428571</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -94,6 +94,9 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
+    <t xml:space="preserve">Total (WEB 03)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Homeworks &amp; Quizzes</t>
   </si>
   <si>
@@ -106,7 +109,25 @@
     <t xml:space="preserve">project</t>
   </si>
   <si>
-    <t xml:space="preserve">Final Scores</t>
+    <t xml:space="preserve">Final Scores (WEB 03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL (PACK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB 01 (x1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB 02 (x1.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB 03 (x 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINAL (100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
@@ -117,7 +138,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -140,8 +161,15 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFD7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,7 +179,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFFFD7"/>
       </patternFill>
     </fill>
     <fill>
@@ -163,7 +191,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFE0C2CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -176,6 +204,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF780373"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0C2CD"/>
+        <bgColor rgb="FFF4B183"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B160E"/>
+        <bgColor rgb="FF333333"/>
       </patternFill>
     </fill>
   </fills>
@@ -213,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -255,6 +307,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,7 +338,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFBE5D6"/>
+      <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -281,18 +349,18 @@
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF780373"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFFBE5D6"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -316,11 +384,11 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF3B160E"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -335,10 +403,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,9 +414,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.53"/>
@@ -506,7 +574,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W2" s="2" t="n">
         <v>10</v>
@@ -698,27 +766,27 @@
         <v>6</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="2" t="n">
         <f aca="false">(0/7)*10</f>
         <v>0</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" s="2" t="n">
         <f aca="false">(29.5/40)*10</f>
         <v>7.375</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="2" t="n">
         <f aca="false">(4/6)*10</f>
@@ -733,13 +801,13 @@
         <v>3.25</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="2" t="n">
         <f aca="false">(6/7)*10</f>
@@ -750,10 +818,10 @@
         <v>8.33333333333333</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,7 +1005,7 @@
         <v>4.5</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>5</v>
@@ -974,7 +1042,7 @@
         <v>10.5</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8" s="2" t="n">
         <f aca="false">(7/7)*10</f>
@@ -985,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,7 +1102,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1044,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,11 +1133,11 @@
       </c>
       <c r="B14" s="10" t="n">
         <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2+S2+T2+U2+V2+W2</f>
-        <v>176.65376984127</v>
+        <v>180.15376984127</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>36.1337256493506</v>
+        <v>36.8496347402597</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>10</v>
@@ -1079,7 +1147,7 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>46.1337256493507</v>
+        <v>46.8496347402597</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,11 +1202,11 @@
       </c>
       <c r="B17" s="10" t="n">
         <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5</f>
-        <v>68.4186507936508</v>
+        <v>96.9186507936508</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>13.994724025974</v>
+        <v>19.8242694805195</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>5</v>
@@ -1148,7 +1216,7 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>18.994724025974</v>
+        <v>24.8242694805195</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,11 +1271,11 @@
       </c>
       <c r="B20" s="10" t="n">
         <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8</f>
-        <v>117.573412698413</v>
+        <v>134.573412698413</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>24.0491071428571</v>
+        <v>27.5263798701299</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>10</v>
@@ -1217,7 +1285,7 @@
       </c>
       <c r="F20" s="8" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>34.0491071428571</v>
+        <v>37.5263798701299</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,9 +1300,162 @@
       <c r="C22" s="10"/>
       <c r="F22" s="8"/>
     </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13" t="n">
+        <v>124</v>
+      </c>
+      <c r="C26" s="13" t="n">
+        <v>102</v>
+      </c>
+      <c r="D26" s="13" t="n">
+        <f aca="false">F14</f>
+        <v>46.8496347402597</v>
+      </c>
+      <c r="E26" s="14" t="n">
+        <f aca="false">((B26*1)+(C26*1.5)+(D26*2))/4.5</f>
+        <v>82.3776154401154</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="13" t="n">
+        <v>105</v>
+      </c>
+      <c r="C27" s="13" t="n">
+        <v>103</v>
+      </c>
+      <c r="D27" s="13" t="n">
+        <f aca="false">F15</f>
+        <v>18.0148133116883</v>
+      </c>
+      <c r="E27" s="14" t="n">
+        <f aca="false">((B27*1)+(C27*1.5)+(D27*2))/4.5</f>
+        <v>65.6732503607504</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="13" t="n">
+        <v>64</v>
+      </c>
+      <c r="C29" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="D29" s="13" t="n">
+        <f aca="false">F17</f>
+        <v>24.8242694805195</v>
+      </c>
+      <c r="E29" s="14" t="n">
+        <f aca="false">((B29*1)+(C29*1.5)+(D29*2))/4.5</f>
+        <v>52.9218975468976</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="D31" s="13" t="n">
+        <f aca="false">F19</f>
+        <v>15.0969967532468</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <f aca="false">((B31*1)+(C31*1.5)+(D31*2))/4.5</f>
+        <v>26.7097763347764</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -310,7 +310,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -406,7 +406,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/107/107.xlsx
+++ b/107/107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -112,6 +112,15 @@
     <t xml:space="preserve">Final Scores (WEB 03)</t>
   </si>
   <si>
+    <t xml:space="preserve">MFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOTAL (PACK)</t>
   </si>
   <si>
@@ -125,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">FINAL (100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
@@ -138,7 +144,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -163,13 +169,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFFFD7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,20 +214,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF650953"/>
+        <bgColor rgb="FF780373"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF780373"/>
-        <bgColor rgb="FF800080"/>
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBF819E"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor rgb="FF780373"/>
+        <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
     <fill>
@@ -265,7 +283,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,11 +324,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,11 +344,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -357,7 +383,7 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FF650953"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFFBE5D6"/>
@@ -403,10 +429,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1126,16 +1152,19 @@
       <c r="F13" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="G13" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="11" t="n">
         <f aca="false">B2+CI2+D2+E2+F2+G2+H2+C2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2+S2+T2+U2+V2+W2</f>
         <v>180.15376984127</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="11" t="n">
         <f aca="false">(B14*45)/B11</f>
         <v>36.8496347402597</v>
       </c>
@@ -1149,16 +1178,20 @@
         <f aca="false">C14+D14+E14</f>
         <v>46.8496347402597</v>
       </c>
+      <c r="G14" s="12" t="n">
+        <f aca="false">((F14-F20)*40)/(F21-F20)+60</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="11" t="n">
         <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3+U3+V3+W3</f>
         <v>70.9613095238095</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="11" t="n">
         <f aca="false">(B15*45)/B11</f>
         <v>14.5148133116883</v>
       </c>
@@ -1172,16 +1205,20 @@
         <f aca="false">C15+D15+E15</f>
         <v>18.0148133116883</v>
       </c>
+      <c r="G15" s="12" t="n">
+        <f aca="false">((F15-F20)*40)/(F21-F20)+60</f>
+        <v>63.6756839663337</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="11" t="n">
         <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4</f>
         <v>79.922619047619</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="11" t="n">
         <f aca="false">(B16*45)/B11</f>
         <v>16.3478084415584</v>
       </c>
@@ -1195,267 +1232,260 @@
         <f aca="false">C16+D16+E16</f>
         <v>20.8478084415584</v>
       </c>
+      <c r="G16" s="12" t="n">
+        <f aca="false">((F16-F20)*40)/(F21-F20)+60</f>
+        <v>67.2445151683633</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="11" t="n">
         <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5</f>
         <v>96.9186507936508</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="11" t="n">
         <f aca="false">(B17*45)/B11</f>
         <v>19.8242694805195</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>24.8242694805195</v>
+        <v>25.8242694805195</v>
+      </c>
+      <c r="G17" s="12" t="n">
+        <f aca="false">((F17-F20)*40)/(F21-F20)+60</f>
+        <v>73.5135515123628</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11" t="n">
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7</f>
+        <v>54.2519841269841</v>
+      </c>
+      <c r="C18" s="11" t="n">
         <f aca="false">(B18*45)/B11</f>
-        <v>0</v>
+        <v>11.0969967532468</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="8" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>0</v>
+        <v>15.0969967532468</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <f aca="false">((F18-F20)*40)/(F21-F18)+60</f>
+        <v>60</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7</f>
-        <v>54.2519841269841</v>
-      </c>
-      <c r="C19" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" s="11" t="n">
+        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8</f>
+        <v>134.573412698413</v>
+      </c>
+      <c r="C19" s="11" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>11.0969967532468</v>
+        <v>27.5263798701299</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
+        <v>37.5263798701299</v>
+      </c>
+      <c r="G19" s="12" t="n">
+        <f aca="false">((F19-F20)*40)/(F21-F20)+60</f>
+        <v>88.2551429283537</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="E20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <f aca="false">MIN(F14:F19)</f>
         <v>15.0969967532468</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B20" s="10" t="n">
-        <f aca="false">B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8</f>
-        <v>134.573412698413</v>
-      </c>
-      <c r="C20" s="10" t="n">
-        <f aca="false">(B20*45)/B11</f>
-        <v>27.5263798701299</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8" t="n">
-        <f aca="false">C20+D20+E20</f>
-        <v>37.5263798701299</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="F22" s="8"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="E21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <f aca="false">MAX(F14:F19)</f>
+        <v>46.8496347402597</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>34</v>
+      <c r="A25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" s="15" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D25" s="15" t="n">
+        <f aca="false">G14</f>
+        <v>100</v>
+      </c>
+      <c r="E25" s="16" t="n">
+        <f aca="false">((B25*1)+(C25*1.5)+(D25*2))/4.5</f>
+        <v>99.9333333333333</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="13" t="n">
-        <v>124</v>
-      </c>
-      <c r="C26" s="13" t="n">
-        <v>102</v>
-      </c>
-      <c r="D26" s="13" t="n">
-        <f aca="false">F14</f>
-        <v>46.8496347402597</v>
-      </c>
-      <c r="E26" s="14" t="n">
+      <c r="A26" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="15" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="C26" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D26" s="15" t="n">
+        <f aca="false">G15</f>
+        <v>63.6756839663337</v>
+      </c>
+      <c r="E26" s="16" t="n">
         <f aca="false">((B26*1)+(C26*1.5)+(D26*2))/4.5</f>
-        <v>82.3776154401154</v>
+        <v>82.4669706517038</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" s="13" t="n">
-        <v>105</v>
-      </c>
-      <c r="C27" s="13" t="n">
-        <v>103</v>
-      </c>
-      <c r="D27" s="13" t="n">
-        <f aca="false">F15</f>
-        <v>18.0148133116883</v>
-      </c>
-      <c r="E27" s="14" t="n">
-        <f aca="false">((B27*1)+(C27*1.5)+(D27*2))/4.5</f>
-        <v>65.6732503607504</v>
+      <c r="A27" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="15" t="n">
+        <f aca="false">G16</f>
+        <v>67.2445151683633</v>
+      </c>
+      <c r="E27" s="16" t="n">
+        <f aca="false">D27</f>
+        <v>67.2445151683633</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>35</v>
+      <c r="A28" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="15" t="n">
+        <v>80.74</v>
+      </c>
+      <c r="C28" s="15" t="n">
+        <v>91</v>
+      </c>
+      <c r="D28" s="15" t="n">
+        <f aca="false">G17</f>
+        <v>73.5135515123628</v>
+      </c>
+      <c r="E28" s="16" t="n">
+        <f aca="false">((B28*1)+(C28*1.5)+(D28*2))/4.5</f>
+        <v>80.9482451166057</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" s="13" t="n">
-        <v>64</v>
-      </c>
-      <c r="C29" s="13" t="n">
-        <v>83</v>
-      </c>
-      <c r="D29" s="13" t="n">
-        <f aca="false">F17</f>
-        <v>24.8242694805195</v>
-      </c>
-      <c r="E29" s="14" t="n">
+      <c r="A29" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" s="15" t="n">
+        <v>60</v>
+      </c>
+      <c r="C29" s="15" t="n">
+        <v>80.55</v>
+      </c>
+      <c r="D29" s="15" t="n">
+        <f aca="false">G18</f>
+        <v>60</v>
+      </c>
+      <c r="E29" s="16" t="n">
         <f aca="false">((B29*1)+(C29*1.5)+(D29*2))/4.5</f>
-        <v>52.9218975468976</v>
+        <v>66.85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B31" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="D31" s="13" t="n">
-        <f aca="false">F19</f>
-        <v>15.0969967532468</v>
-      </c>
-      <c r="E31" s="14" t="n">
-        <f aca="false">((B31*1)+(C31*1.5)+(D31*2))/4.5</f>
-        <v>26.7097763347764</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
+      <c r="A30" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>35</v>
+      <c r="B30" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="15" t="n">
+        <f aca="false">G19</f>
+        <v>88.2551429283537</v>
+      </c>
+      <c r="E30" s="16" t="n">
+        <f aca="false">D30</f>
+        <v>88.2551429283537</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
